--- a/output.xlsx
+++ b/output.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/mcp656_ku_dk/Documents/Desktop/Seminar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_1BE783124408D01C4AFE31D2F87AE380488FCFED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7646D22-5AD5-411C-A2C5-DCEDEC4E39A2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C72BC0074BD0D31D20FF31D2F87AE380880AB986" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2887D0D-CD2D-477E-919C-0EA2F339C861}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>yield</t>
   </si>
@@ -56,7 +43,16 @@
     <t>pce_nom_ret</t>
   </si>
   <si>
-    <t>cpi_nom_ret</t>
+    <t>cpi_chg</t>
+  </si>
+  <si>
+    <t>yield_real_ret</t>
+  </si>
+  <si>
+    <t>sp500_real_ret</t>
+  </si>
+  <si>
+    <t>pce_real_ret</t>
   </si>
   <si>
     <t>date</t>
@@ -433,23 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -475,8 +468,17 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>31048</v>
       </c>
@@ -496,7 +498,7 @@
         <v>1.9286552294163439E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>31138</v>
       </c>
@@ -524,12 +526,17 @@
       <c r="I3">
         <v>1.2223941585714101E-2</v>
       </c>
+      <c r="J3">
+        <v>7.5294601398769694E-3</v>
+      </c>
       <c r="K3">
-        <f>+F3-I3</f>
-        <v>7.5294601398769694E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.1110975416293221E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.1979960297217041E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>31229</v>
       </c>
@@ -557,8 +564,17 @@
       <c r="I4">
         <v>6.5207497004367851E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>1.1131989205025431E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.3383858993745127E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.4390862141247671E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>31321</v>
       </c>
@@ -586,8 +602,17 @@
       <c r="I5">
         <v>7.4005888181713237E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>1.0449026327941971E-2</v>
+      </c>
+      <c r="K5">
+        <v>-1.31794333740457E-2</v>
+      </c>
+      <c r="L5">
+        <v>7.2574457175748307E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>31413</v>
       </c>
@@ -615,8 +640,17 @@
       <c r="I6">
         <v>1.2820688429061471E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>4.79836537916121E-3</v>
+      </c>
+      <c r="K6">
+        <v>9.6850858562417055E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.272298126623371E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>31503</v>
       </c>
@@ -644,8 +678,17 @@
       <c r="I7">
         <v>-1.09790672824119E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>2.6100995794729989E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.1170475475715782</v>
+      </c>
+      <c r="L7">
+        <v>1.3840097438075551E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>31594</v>
       </c>
@@ -673,8 +716,17 @@
       <c r="I8">
         <v>7.3327551293917914E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>7.2333998581372407E-3</v>
+      </c>
+      <c r="K8">
+        <v>-4.7882244943969962E-3</v>
+      </c>
+      <c r="L8">
+        <v>8.7616374750541549E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>31686</v>
       </c>
@@ -702,8 +754,17 @@
       <c r="I9">
         <v>6.372347462258612E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>6.5934923233626121E-3</v>
+      </c>
+      <c r="K9">
+        <v>2.6540433739476139E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.141247313524627E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>31778</v>
       </c>
@@ -731,8 +792,17 @@
       <c r="I10">
         <v>1.083043077436959E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>2.7395267872136341E-3</v>
+      </c>
+      <c r="K10">
+        <v>0.1054943472411687</v>
+      </c>
+      <c r="L10">
+        <v>-9.9443288828416215E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>31868</v>
       </c>
@@ -760,8 +830,17 @@
       <c r="I11">
         <v>1.1602093552546979E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>2.530119104264374E-3</v>
+      </c>
+      <c r="K11">
+        <v>3.925330854950676E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.2982810572279039E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>31959</v>
       </c>
@@ -789,8 +868,17 @@
       <c r="I12">
         <v>9.7131006464998056E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>4.5688006746406658E-3</v>
+      </c>
+      <c r="K12">
+        <v>9.0188715365996971E-2</v>
+      </c>
+      <c r="L12">
+        <v>8.5151696119443367E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>32051</v>
       </c>
@@ -818,8 +906,17 @@
       <c r="I13">
         <v>1.048960667101944E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>4.9039710227577306E-3</v>
+      </c>
+      <c r="K13">
+        <v>-0.2461047064840633</v>
+      </c>
+      <c r="L13">
+        <v>2.2890941554929612E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>32143</v>
       </c>
@@ -847,8 +944,17 @@
       <c r="I14">
         <v>8.6580627431145311E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>5.9203358356868328E-3</v>
+      </c>
+      <c r="K14">
+        <v>1.2171929918482489E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.629518685335193E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>32234</v>
       </c>
@@ -876,8 +982,17 @@
       <c r="I15">
         <v>1.0291686036547719E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>4.4712191115923658E-3</v>
+      </c>
+      <c r="K15">
+        <v>5.9123722181752478E-3</v>
+      </c>
+      <c r="L15">
+        <v>4.9324102462831986E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>32325</v>
       </c>
@@ -905,8 +1020,17 @@
       <c r="I16">
         <v>1.1031083432273631E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>5.7620538272799213E-3</v>
+      </c>
+      <c r="K16">
+        <v>2.9101810337156791E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.310076261294019E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>32417</v>
       </c>
@@ -934,8 +1058,17 @@
       <c r="I17">
         <v>1.174510145828267E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>6.5605436192216074E-3</v>
+      </c>
+      <c r="K17">
+        <v>1.3664614067085549E-2</v>
+      </c>
+      <c r="L17">
+        <v>9.2727819342553891E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>32509</v>
       </c>
@@ -963,8 +1096,17 @@
       <c r="I18">
         <v>1.078401160174541E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>9.7457414480403241E-3</v>
+      </c>
+      <c r="K18">
+        <v>5.3418431562573421E-2</v>
+      </c>
+      <c r="L18">
+        <v>9.5141887101465195E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>32599</v>
       </c>
@@ -992,8 +1134,17 @@
       <c r="I19">
         <v>1.555495955519369E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>5.9034405322070903E-3</v>
+      </c>
+      <c r="K19">
+        <v>2.4311957174694029E-2</v>
+      </c>
+      <c r="L19">
+        <v>1.323918967313726E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>32690</v>
       </c>
@@ -1021,8 +1172,17 @@
       <c r="I20">
         <v>1.1308682714354571E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>8.2716239794444219E-3</v>
+      </c>
+      <c r="K20">
+        <v>0.10013792621137201</v>
+      </c>
+      <c r="L20">
+        <v>6.7120441305389654E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>32782</v>
       </c>
@@ -1050,8 +1210,17 @@
       <c r="I21">
         <v>7.2029122940580163E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>1.180465595815045E-2</v>
+      </c>
+      <c r="K21">
+        <v>-2.3809266236137699E-2</v>
+      </c>
+      <c r="L21">
+        <v>6.0672670643554206E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>32874</v>
       </c>
@@ -1079,8 +1248,17 @@
       <c r="I22">
         <v>1.6607736399660549E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>2.3965218729594079E-3</v>
+      </c>
+      <c r="K22">
+        <v>-5.0367477149585199E-2</v>
+      </c>
+      <c r="L22">
+        <v>9.76425483987459E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>32964</v>
       </c>
@@ -1108,8 +1286,17 @@
       <c r="I23">
         <v>1.092054534666087E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>8.413447363639517E-3</v>
+      </c>
+      <c r="K23">
+        <v>-5.7682381464188711E-3</v>
+      </c>
+      <c r="L23">
+        <v>-4.4142749543354259E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>33055</v>
       </c>
@@ -1137,8 +1324,17 @@
       <c r="I24">
         <v>1.2336316817606319E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>6.6138722506353578E-3</v>
+      </c>
+      <c r="K24">
+        <v>6.1361310316589472E-2</v>
+      </c>
+      <c r="L24">
+        <v>1.2840315241880681E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>33147</v>
       </c>
@@ -1166,8 +1362,17 @@
       <c r="I25">
         <v>2.1978906718775379E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>-4.1314076971071326E-3</v>
+      </c>
+      <c r="K25">
+        <v>-0.18016279559628581</v>
+      </c>
+      <c r="L25">
+        <v>-9.2647227363753162E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>33239</v>
       </c>
@@ -1195,8 +1400,17 @@
       <c r="I26">
         <v>9.6979499347947425E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>5.8355116925423237E-3</v>
+      </c>
+      <c r="K26">
+        <v>0.113625266097204</v>
+      </c>
+      <c r="L26">
+        <v>-1.7374734355140951E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>33329</v>
       </c>
@@ -1224,8 +1438,17 @@
       <c r="I27">
         <v>2.9651615498349671E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>1.119006236655538E-2</v>
+      </c>
+      <c r="K27">
+        <v>8.4676045164352953E-2</v>
+      </c>
+      <c r="L27">
+        <v>1.4097499917525669E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>33420</v>
       </c>
@@ -1253,8 +1476,17 @@
       <c r="I28">
         <v>8.1091487492587211E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>5.8699083771629589E-3</v>
+      </c>
+      <c r="K28">
+        <v>2.4388469906884289E-2</v>
+      </c>
+      <c r="L28">
+        <v>6.8534705172171168E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>33512</v>
       </c>
@@ -1282,8 +1514,17 @@
       <c r="I29">
         <v>7.3153215763729152E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>5.2250578752145527E-3</v>
+      </c>
+      <c r="K29">
+        <v>4.731472837538696E-3</v>
+      </c>
+      <c r="L29">
+        <v>-4.7970628796495229E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>33604</v>
       </c>
@@ -1311,8 +1552,17 @@
       <c r="I30">
         <v>7.9855233789279442E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>1.59404948138437E-3</v>
+      </c>
+      <c r="K30">
+        <v>3.2703978288103563E-2</v>
+      </c>
+      <c r="L30">
+        <v>1.8986474029420199E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>33695</v>
       </c>
@@ -1340,8 +1590,17 @@
       <c r="I31">
         <v>7.9222596557109171E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>1.495714170861015E-3</v>
+      </c>
+      <c r="K31">
+        <v>6.8892287936166419E-3</v>
+      </c>
+      <c r="L31">
+        <v>3.469991300715224E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>33786</v>
       </c>
@@ -1369,8 +1628,17 @@
       <c r="I32">
         <v>7.8599904473768759E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>2.072994131472779E-4</v>
+      </c>
+      <c r="K32">
+        <v>1.430752434438295E-2</v>
+      </c>
+      <c r="L32">
+        <v>9.726202261620881E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>33878</v>
       </c>
@@ -1398,8 +1666,17 @@
       <c r="I33">
         <v>8.5046579228341378E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>-1.277978602607551E-3</v>
+      </c>
+      <c r="K33">
+        <v>-2.1555027028318591E-2</v>
+      </c>
+      <c r="L33">
+        <v>1.031915013926657E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33970</v>
       </c>
@@ -1427,8 +1704,17 @@
       <c r="I34">
         <v>7.7329032088493148E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>-1.7080426089913309E-4</v>
+      </c>
+      <c r="K34">
+        <v>3.9156152167128179E-2</v>
+      </c>
+      <c r="L34">
+        <v>5.2521842899587489E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34060</v>
       </c>
@@ -1456,8 +1742,17 @@
       <c r="I35">
         <v>6.9783953814622776E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>2.4250109161397861E-4</v>
+      </c>
+      <c r="K35">
+        <v>-3.792954690176124E-3</v>
+      </c>
+      <c r="L35">
+        <v>5.0893939874775652E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>34151</v>
       </c>
@@ -1485,8 +1780,17 @@
       <c r="I36">
         <v>4.8560622655403956E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>2.802795247419089E-3</v>
+      </c>
+      <c r="K36">
+        <v>1.293119043419581E-2</v>
+      </c>
+      <c r="L36">
+        <v>1.2182816266918259E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>34243</v>
       </c>
@@ -1514,8 +1818,17 @@
       <c r="I37">
         <v>7.5836282100986393E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>2.9273653858474979E-5</v>
+      </c>
+      <c r="K37">
+        <v>3.5440804147882699E-2</v>
+      </c>
+      <c r="L37">
+        <v>6.6139285536094142E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>34335</v>
       </c>
@@ -1543,8 +1856,17 @@
       <c r="I38">
         <v>4.7961722634932346E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>2.7015146801544791E-3</v>
+      </c>
+      <c r="K38">
+        <v>2.4276867581039491E-2</v>
+      </c>
+      <c r="L38">
+        <v>6.6758933637978326E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>34425</v>
       </c>
@@ -1572,8 +1894,17 @@
       <c r="I39">
         <v>6.1328982686970016E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>3.1441415801702591E-3</v>
+      </c>
+      <c r="K39">
+        <v>-7.2001206836269843E-2</v>
+      </c>
+      <c r="L39">
+        <v>1.244977599263423E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>34516</v>
       </c>
@@ -1601,8 +1932,17 @@
       <c r="I40">
         <v>8.1191244385044117E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>2.781008264155475E-3</v>
+      </c>
+      <c r="K40">
+        <v>8.1592816495355269E-3</v>
+      </c>
+      <c r="L40">
+        <v>2.422195741400087E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>34608</v>
       </c>
@@ -1630,8 +1970,17 @@
       <c r="I41">
         <v>6.7159419654368091E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>5.7243383369316768E-3</v>
+      </c>
+      <c r="K41">
+        <v>2.3586150842691889E-2</v>
+      </c>
+      <c r="L41">
+        <v>1.2647960914924259E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>34700</v>
       </c>
@@ -1659,8 +2008,17 @@
       <c r="I42">
         <v>7.335811490213358E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>6.9989962160130472E-3</v>
+      </c>
+      <c r="K42">
+        <v>-1.1578499229003451E-2</v>
+      </c>
+      <c r="L42">
+        <v>5.9047249264479722E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>34790</v>
       </c>
@@ -1688,8 +2046,17 @@
       <c r="I43">
         <v>8.6007807725991224E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>5.5838298832623246E-3</v>
+      </c>
+      <c r="K43">
+        <v>8.140002930169267E-2</v>
+      </c>
+      <c r="L43">
+        <v>-5.9367535255200506E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>34881</v>
       </c>
@@ -1717,8 +2084,17 @@
       <c r="I44">
         <v>5.2562538888269016E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>8.349219913208937E-3</v>
+      </c>
+      <c r="K44">
+        <v>8.2839309460493546E-2</v>
+      </c>
+      <c r="L44">
+        <v>1.097062441282938E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>34973</v>
       </c>
@@ -1746,8 +2122,17 @@
       <c r="I45">
         <v>5.8804481768953204E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>7.3726843082329479E-3</v>
+      </c>
+      <c r="K45">
+        <v>2.805075377379445E-2</v>
+      </c>
+      <c r="L45">
+        <v>2.8735264563926311E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>35065</v>
       </c>
@@ -1775,8 +2160,17 @@
       <c r="I46">
         <v>7.7871905517684654E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>4.7683706552854163E-3</v>
+      </c>
+      <c r="K46">
+        <v>8.1800400829634606E-2</v>
+      </c>
+      <c r="L46">
+        <v>6.4314338773416449E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>35156</v>
       </c>
@@ -1804,8 +2198,17 @@
       <c r="I47">
         <v>9.0090699423659108E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>3.3972583503590649E-3</v>
+      </c>
+      <c r="K47">
+        <v>1.9205481821795531E-2</v>
+      </c>
+      <c r="L47">
+        <v>1.475415515394001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>35247</v>
       </c>
@@ -1833,8 +2236,17 @@
       <c r="I48">
         <v>5.7489778269217574E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>7.1575137527868059E-3</v>
+      </c>
+      <c r="K48">
+        <v>-2.7693916577487879E-2</v>
+      </c>
+      <c r="L48">
+        <v>2.6450331605146192E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>35339</v>
       </c>
@@ -1862,8 +2274,17 @@
       <c r="I49">
         <v>7.6142499852454399E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>4.8764091967374848E-3</v>
+      </c>
+      <c r="K49">
+        <v>8.9540817875170556E-2</v>
+      </c>
+      <c r="L49">
+        <v>6.865606799923824E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>35431</v>
       </c>
@@ -1891,8 +2312,17 @@
       <c r="I50">
         <v>7.55671102256124E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>5.0350768183772057E-3</v>
+      </c>
+      <c r="K50">
+        <v>0.10103125775106531</v>
+      </c>
+      <c r="L50">
+        <v>7.8259156606911781E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>35521</v>
       </c>
@@ -1920,8 +2350,17 @@
       <c r="I51">
         <v>3.1318534837938799E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>9.7897462487101915E-3</v>
+      </c>
+      <c r="K51">
+        <v>1.589234231247089E-2</v>
+      </c>
+      <c r="L51">
+        <v>5.7363235637085189E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>35612</v>
       </c>
@@ -1949,8 +2388,17 @@
       <c r="I52">
         <v>3.122075592505514E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>9.5382403274705107E-3</v>
+      </c>
+      <c r="K52">
+        <v>0.1716206030466777</v>
+      </c>
+      <c r="L52">
+        <v>1.3139036161896789E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>35704</v>
       </c>
@@ -1978,8 +2426,17 @@
       <c r="I53">
         <v>6.8344472302969894E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>5.6313481082341547E-3</v>
+      </c>
+      <c r="K53">
+        <v>-4.9325723429550238E-2</v>
+      </c>
+      <c r="L53">
+        <v>9.0600455235883837E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>35796</v>
       </c>
@@ -2007,8 +2464,17 @@
       <c r="I54">
         <v>3.09119256967288E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>9.5321760845712353E-3</v>
+      </c>
+      <c r="K54">
+        <v>6.6280643474052658E-2</v>
+      </c>
+      <c r="L54">
+        <v>6.1252998037706532E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>35886</v>
       </c>
@@ -2036,8 +2502,17 @@
       <c r="I55">
         <v>1.233806448928344E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>1.1160935707980929E-2</v>
+      </c>
+      <c r="K55">
+        <v>0.1246431488027602</v>
+      </c>
+      <c r="L55">
+        <v>1.5877606004787929E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>35977</v>
       </c>
@@ -2065,8 +2540,17 @@
       <c r="I56">
         <v>6.1463008486940043E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>6.2762471321428674E-3</v>
+      </c>
+      <c r="K56">
+        <v>1.8268656899193029E-3</v>
+      </c>
+      <c r="L56">
+        <v>1.1305611069725319E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>36069</v>
       </c>
@@ -2094,8 +2578,17 @@
       <c r="I57">
         <v>4.2800432197774617E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>5.6944916117239982E-3</v>
+      </c>
+      <c r="K57">
+        <v>-2.4105870570924538E-2</v>
+      </c>
+      <c r="L57">
+        <v>1.4023408342115099E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>36161</v>
       </c>
@@ -2123,8 +2616,17 @@
       <c r="I58">
         <v>4.8691514338105504E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>6.0066057943113276E-3</v>
+      </c>
+      <c r="K58">
+        <v>0.147550714934717</v>
+      </c>
+      <c r="L58">
+        <v>7.5723022134217589E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>36251</v>
       </c>
@@ -2152,8 +2654,17 @@
       <c r="I59">
         <v>7.2595600128043227E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>3.5270808228684571E-3</v>
+      </c>
+      <c r="K59">
+        <v>3.5274004259458133E-2</v>
+      </c>
+      <c r="L59">
+        <v>1.3208180752335199E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>36342</v>
       </c>
@@ -2181,8 +2692,17 @@
       <c r="I60">
         <v>4.8105925603493267E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>6.6375270187796504E-3</v>
+      </c>
+      <c r="K60">
+        <v>-9.6906653107124742E-3</v>
+      </c>
+      <c r="L60">
+        <v>9.3002036738368318E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>36434</v>
       </c>
@@ -2210,8 +2730,17 @@
       <c r="I61">
         <v>8.363250657821588E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>3.878334123654258E-3</v>
+      </c>
+      <c r="K61">
+        <v>1.70505111783836E-2</v>
+      </c>
+      <c r="L61">
+        <v>1.1134965291444809E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>36526</v>
       </c>
@@ -2239,8 +2768,17 @@
       <c r="I62">
         <v>7.113248724519859E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>6.2695733280104466E-3</v>
+      </c>
+      <c r="K62">
+        <v>1.5807896909556338E-2</v>
+      </c>
+      <c r="L62">
+        <v>1.3189587715981841E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>36617</v>
       </c>
@@ -2268,8 +2806,17 @@
       <c r="I63">
         <v>9.4063009824555885E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63">
+        <v>4.7397671285766187E-3</v>
+      </c>
+      <c r="K63">
+        <v>3.1275131490181469E-2</v>
+      </c>
+      <c r="L63">
+        <v>1.119645468848828E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>36708</v>
       </c>
@@ -2297,8 +2844,17 @@
       <c r="I64">
         <v>1.047739503108756E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64">
+        <v>4.4256912016982794E-3</v>
+      </c>
+      <c r="K64">
+        <v>-2.5461027186405711E-2</v>
+      </c>
+      <c r="L64">
+        <v>2.8188536799583341E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>36800</v>
       </c>
@@ -2326,8 +2882,17 @@
       <c r="I65">
         <v>6.9244362076046288E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65">
+        <v>8.3370191960829964E-3</v>
+      </c>
+      <c r="K65">
+        <v>-7.9033888065886786E-3</v>
+      </c>
+      <c r="L65">
+        <v>1.1418524088574151E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>36892</v>
       </c>
@@ -2355,8 +2920,17 @@
       <c r="I66">
         <v>9.7282598407788055E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66">
+        <v>3.1474987330612058E-3</v>
+      </c>
+      <c r="K66">
+        <v>-5.5096274495921971E-2</v>
+      </c>
+      <c r="L66">
+        <v>3.7578103280237469E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>36982</v>
       </c>
@@ -2384,8 +2958,17 @@
       <c r="I67">
         <v>4.5454623716746382E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <v>5.1779717846651722E-3</v>
+      </c>
+      <c r="K67">
+        <v>-9.3688752227402972E-2</v>
+      </c>
+      <c r="L67">
+        <v>-2.144020353078791E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>37073</v>
       </c>
@@ -2413,8 +2996,17 @@
       <c r="I68">
         <v>5.6529263027882311E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68">
+        <v>3.172771622808537E-3</v>
+      </c>
+      <c r="K68">
+        <v>-3.6784793894610909E-2</v>
+      </c>
+      <c r="L68">
+        <v>5.4358182774405404E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2442,8 +3034,17 @@
       <c r="I69">
         <v>1.126760682590445E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69">
+        <v>4.3080526919863516E-3</v>
+      </c>
+      <c r="K69">
+        <v>-0.1346581533071132</v>
+      </c>
+      <c r="L69">
+        <v>1.7145615178406438E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>37257</v>
       </c>
@@ -2471,8 +3072,17 @@
       <c r="I70">
         <v>5.6290460253598175E-4</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J70">
+        <v>3.61391341298116E-3</v>
+      </c>
+      <c r="K70">
+        <v>6.3751492534545443E-2</v>
+      </c>
+      <c r="L70">
+        <v>-4.4941477276978616E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>37347</v>
       </c>
@@ -2500,8 +3110,17 @@
       <c r="I71">
         <v>8.9636454504817744E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71">
+        <v>-4.6387711809664873E-3</v>
+      </c>
+      <c r="K71">
+        <v>-5.7271710311389459E-2</v>
+      </c>
+      <c r="L71">
+        <v>8.6817206641485855E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>37438</v>
       </c>
@@ -2529,8 +3148,17 @@
       <c r="I72">
         <v>3.896470279123159E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J72">
+        <v>3.513277915818706E-4</v>
+      </c>
+      <c r="K72">
+        <v>-0.1705369952424293</v>
+      </c>
+      <c r="L72">
+        <v>6.2806267706075154E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>37530</v>
       </c>
@@ -2558,8 +3186,17 @@
       <c r="I73">
         <v>6.6445427186685108E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73">
+        <v>-2.651600341243844E-3</v>
+      </c>
+      <c r="K73">
+        <v>-3.5354648601099992E-2</v>
+      </c>
+      <c r="L73">
+        <v>-1.8137297779741851E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>37622</v>
       </c>
@@ -2587,8 +3224,17 @@
       <c r="I74">
         <v>7.6965745519890667E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74">
+        <v>-4.7414895769168101E-3</v>
+      </c>
+      <c r="K74">
+        <v>-4.2267918617077627E-2</v>
+      </c>
+      <c r="L74">
+        <v>6.4725270508524963E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>37712</v>
       </c>
@@ -2616,8 +3262,17 @@
       <c r="I75">
         <v>3.28048407916168E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75">
+        <v>-4.1600503518046759E-4</v>
+      </c>
+      <c r="K75">
+        <v>6.5798083552684281E-2</v>
+      </c>
+      <c r="L75">
+        <v>9.0023836108492766E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>37803</v>
       </c>
@@ -2645,8 +3300,17 @@
       <c r="I76">
         <v>2.725539981050012E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76">
+        <v>-4.3492953299843149E-4</v>
+      </c>
+      <c r="K76">
+        <v>7.4283972490351846E-2</v>
+      </c>
+      <c r="L76">
+        <v>1.3192672886255211E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>37895</v>
       </c>
@@ -2674,8 +3338,17 @@
       <c r="I77">
         <v>6.5111461719993468E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77">
+        <v>-4.1676193563800383E-3</v>
+      </c>
+      <c r="K77">
+        <v>5.2692813995473271E-2</v>
+      </c>
+      <c r="L77">
+        <v>7.6208316769581117E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>37987</v>
       </c>
@@ -2703,8 +3376,17 @@
       <c r="I78">
         <v>7.5431392144636898E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J78">
+        <v>-5.301965024318343E-3</v>
+      </c>
+      <c r="K78">
+        <v>6.6190862628142083E-2</v>
+      </c>
+      <c r="L78">
+        <v>1.0057869512415321E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>38078</v>
       </c>
@@ -2732,8 +3414,17 @@
       <c r="I79">
         <v>5.887092196779067E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J79">
+        <v>-3.503255665230162E-3</v>
+      </c>
+      <c r="K79">
+        <v>-2.7153083030051799E-2</v>
+      </c>
+      <c r="L79">
+        <v>6.5368154581581343E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>38169</v>
       </c>
@@ -2761,8 +3452,17 @@
       <c r="I80">
         <v>9.0306058600899894E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J80">
+        <v>-5.6593909376176418E-3</v>
+      </c>
+      <c r="K80">
+        <v>-1.410078421813327E-2</v>
+      </c>
+      <c r="L80">
+        <v>6.8408979434612729E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>38261</v>
       </c>
@@ -2790,8 +3490,17 @@
       <c r="I81">
         <v>8.9497833497743373E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J81">
+        <v>-4.503311058804014E-3</v>
+      </c>
+      <c r="K81">
+        <v>1.659038349994928E-2</v>
+      </c>
+      <c r="L81">
+        <v>1.031256525280503E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>38353</v>
       </c>
@@ -2819,8 +3528,17 @@
       <c r="I82">
         <v>4.1841065225738704E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J82">
+        <v>1.6742143231106271E-3</v>
+      </c>
+      <c r="K82">
+        <v>4.0036812236157418E-2</v>
+      </c>
+      <c r="L82">
+        <v>7.7250239771620276E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>38443</v>
       </c>
@@ -2848,8 +3566,17 @@
       <c r="I83">
         <v>1.0900704876189941E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J83">
+        <v>-3.9077591075027994E-3</v>
+      </c>
+      <c r="K83">
+        <v>-3.1858659426163942E-2</v>
+      </c>
+      <c r="L83">
+        <v>1.0140936362265211E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>38534</v>
       </c>
@@ -2877,8 +3604,17 @@
       <c r="I84">
         <v>6.1760361005650443E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J84">
+        <v>1.910507909237798E-3</v>
+      </c>
+      <c r="K84">
+        <v>5.8589378381901182E-2</v>
+      </c>
+      <c r="L84">
+        <v>1.3833529409934179E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>38626</v>
       </c>
@@ -2906,8 +3642,17 @@
       <c r="I85">
         <v>2.1320604556635411E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J85">
+        <v>-1.201472260714378E-2</v>
+      </c>
+      <c r="K85">
+        <v>-4.3605649346070398E-2</v>
+      </c>
+      <c r="L85">
+        <v>-1.179956007795843E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>38718</v>
       </c>
@@ -2935,8 +3680,17 @@
       <c r="I86">
         <v>1.0040161485984861E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J86">
+        <v>9.6075525170903047E-3</v>
+      </c>
+      <c r="K86">
+        <v>5.7796241615933913E-2</v>
+      </c>
+      <c r="L86">
+        <v>1.37768482809651E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>38808</v>
       </c>
@@ -2964,8 +3718,17 @@
       <c r="I87">
         <v>7.0000285835433562E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J87">
+        <v>4.5337247417915746E-3</v>
+      </c>
+      <c r="K87">
+        <v>1.6546819159789131E-2</v>
+      </c>
+      <c r="L87">
+        <v>6.1413406125309777E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>38899</v>
       </c>
@@ -2993,8 +3756,17 @@
       <c r="I88">
         <v>1.090199102947673E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J88">
+        <v>1.477626550193834E-3</v>
+      </c>
+      <c r="K88">
+        <v>-3.7108414808567997E-2</v>
+      </c>
+      <c r="L88">
+        <v>5.521007219089831E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>38991</v>
       </c>
@@ -3022,8 +3794,17 @@
       <c r="I89">
         <v>-4.9407215129772036E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J89">
+        <v>1.7248215696666489E-2</v>
+      </c>
+      <c r="K89">
+        <v>8.1222698686529482E-2</v>
+      </c>
+      <c r="L89">
+        <v>1.025630609355074E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>39083</v>
       </c>
@@ -3051,8 +3832,17 @@
       <c r="I90">
         <v>7.5838493237799154E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J90">
+        <v>4.8641331283044318E-3</v>
+      </c>
+      <c r="K90">
+        <v>3.5247881344756232E-2</v>
+      </c>
+      <c r="L90">
+        <v>7.7447521794409393E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>39173</v>
       </c>
@@ -3080,8 +3870,17 @@
       <c r="I91">
         <v>1.205366610873727E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J91">
+        <v>1.5974744560981989E-4</v>
+      </c>
+      <c r="K91">
+        <v>1.8216398194019021E-2</v>
+      </c>
+      <c r="L91">
+        <v>-1.116391046735023E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>39264</v>
       </c>
@@ -3109,8 +3908,17 @@
       <c r="I92">
         <v>8.2175613030637772E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J92">
+        <v>3.8869919264294919E-3</v>
+      </c>
+      <c r="K92">
+        <v>-2.666789235493339E-2</v>
+      </c>
+      <c r="L92">
+        <v>2.868054962749497E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>39356</v>
       </c>
@@ -3138,8 +3946,17 @@
       <c r="I93">
         <v>7.6153278466560932E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93">
+        <v>2.1964062997608899E-3</v>
+      </c>
+      <c r="K93">
+        <v>5.5040366431865703E-2</v>
+      </c>
+      <c r="L93">
+        <v>5.7903267725257111E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>39448</v>
       </c>
@@ -3167,8 +3984,17 @@
       <c r="I94">
         <v>1.4163762852995809E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J94">
+        <v>-7.2113376931790029E-3</v>
+      </c>
+      <c r="K94">
+        <v>-0.13103557058694659</v>
+      </c>
+      <c r="L94">
+        <v>-2.7244884525090621E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>39539</v>
       </c>
@@ -3196,8 +4022,17 @@
       <c r="I95">
         <v>8.2982574957074784E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95">
+        <v>-5.0400365875440129E-3</v>
+      </c>
+      <c r="K95">
+        <v>-3.1609501513882891E-3</v>
+      </c>
+      <c r="L95">
+        <v>-9.3278792770133939E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>39630</v>
       </c>
@@ -3225,8 +4060,17 @@
       <c r="I96">
         <v>2.3439836258794051E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J96">
+        <v>-1.9336200941770389E-2</v>
+      </c>
+      <c r="K96">
+        <v>-0.11260553717754811</v>
+      </c>
+      <c r="L96">
+        <v>-1.210446601438646E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>39722</v>
       </c>
@@ -3254,8 +4098,17 @@
       <c r="I97">
         <v>-9.2704747081799616E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J97">
+        <v>1.097939329856628E-2</v>
+      </c>
+      <c r="K97">
+        <v>-0.25939416994235431</v>
+      </c>
+      <c r="L97">
+        <v>-5.666101155115115E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>39814</v>
       </c>
@@ -3283,8 +4136,17 @@
       <c r="I98">
         <v>-2.3604124814632681E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J98">
+        <v>2.392766536731105E-2</v>
+      </c>
+      <c r="K98">
+        <v>-0.1359803666075784</v>
+      </c>
+      <c r="L98">
+        <v>4.8019835009736056E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>39904</v>
       </c>
@@ -3312,8 +4174,17 @@
       <c r="I99">
         <v>3.6548474423694802E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J99">
+        <v>-3.259921444537761E-3</v>
+      </c>
+      <c r="K99">
+        <v>5.157788625982019E-2</v>
+      </c>
+      <c r="L99">
+        <v>-1.126967957134576E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>39995</v>
       </c>
@@ -3341,8 +4212,17 @@
       <c r="I100">
         <v>9.4377623329324027E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J100">
+        <v>-8.9790924374232237E-3</v>
+      </c>
+      <c r="K100">
+        <v>0.1140322999234836</v>
+      </c>
+      <c r="L100">
+        <v>2.139879350192195E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>40087</v>
       </c>
@@ -3370,8 +4250,17 @@
       <c r="I101">
         <v>8.2693202563011384E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J101">
+        <v>-8.0836749160363864E-3</v>
+      </c>
+      <c r="K101">
+        <v>3.9869637349109997E-2</v>
+      </c>
+      <c r="L101">
+        <v>8.3309369581953049E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>40179</v>
       </c>
@@ -3399,8 +4288,17 @@
       <c r="I102">
         <v>4.5115595755752733E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J102">
+        <v>-4.3576595872889066E-3</v>
+      </c>
+      <c r="K102">
+        <v>3.1225146907907609E-2</v>
+      </c>
+      <c r="L102">
+        <v>3.4154816545622101E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>40269</v>
       </c>
@@ -3428,8 +4326,17 @@
       <c r="I103">
         <v>-3.9090255297251759E-4</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J103">
+        <v>7.9625557133266851E-4</v>
+      </c>
+      <c r="K103">
+        <v>0.100270366359895</v>
+      </c>
+      <c r="L103">
+        <v>1.2862405808288679E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>40360</v>
       </c>
@@ -3457,8 +4364,17 @@
       <c r="I104">
         <v>9.2871861905561702E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J104">
+        <v>-5.3498122112457321E-4</v>
+      </c>
+      <c r="K104">
+        <v>-7.5341395875703987E-2</v>
+      </c>
+      <c r="L104">
+        <v>7.4623645316785519E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>40452</v>
       </c>
@@ -3486,8 +4402,17 @@
       <c r="I105">
         <v>6.5500417396913051E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J105">
+        <v>-6.2140176652590862E-3</v>
+      </c>
+      <c r="K105">
+        <v>6.4993435236376754E-2</v>
+      </c>
+      <c r="L105">
+        <v>4.9052143678092229E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>40544</v>
       </c>
@@ -3515,8 +4440,17 @@
       <c r="I106">
         <v>9.7769631788883673E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J106">
+        <v>-9.3972516865709257E-3</v>
+      </c>
+      <c r="K106">
+        <v>7.3530274702639647E-2</v>
+      </c>
+      <c r="L106">
+        <v>2.462014131451265E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>40634</v>
       </c>
@@ -3544,8 +4478,17 @@
       <c r="I107">
         <v>1.3052646686138021E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J107">
+        <v>-1.290643944758685E-2</v>
+      </c>
+      <c r="K107">
+        <v>4.5461231305569012E-2</v>
+      </c>
+      <c r="L107">
+        <v>-3.1826244390674788E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>40725</v>
       </c>
@@ -3573,8 +4516,17 @@
       <c r="I108">
         <v>5.7932743097833502E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J108">
+        <v>-5.6995418835150509E-3</v>
+      </c>
+      <c r="K108">
+        <v>-5.9497959042385723E-2</v>
+      </c>
+      <c r="L108">
+        <v>1.6423300322216999E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>40817</v>
       </c>
@@ -3602,8 +4554,17 @@
       <c r="I109">
         <v>5.9936704217695832E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J109">
+        <v>-5.9461749336981026E-3</v>
+      </c>
+      <c r="K109">
+        <v>-3.6637174335438748E-2</v>
+      </c>
+      <c r="L109">
+        <v>6.2828602427895865E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>40909</v>
       </c>
@@ -3631,8 +4592,17 @@
       <c r="I110">
         <v>4.8043172797255429E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J110">
+        <v>-4.7180821544294486E-3</v>
+      </c>
+      <c r="K110">
+        <v>4.1273132189744627E-2</v>
+      </c>
+      <c r="L110">
+        <v>3.8502342672218988E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>41000</v>
       </c>
@@ -3660,8 +4630,17 @@
       <c r="I111">
         <v>5.8858579343409826E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J111">
+        <v>-5.6764218762447253E-3</v>
+      </c>
+      <c r="K111">
+        <v>5.7227730455795288E-2</v>
+      </c>
+      <c r="L111">
+        <v>5.2206522223383831E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>41091</v>
       </c>
@@ -3689,8 +4668,17 @@
       <c r="I112">
         <v>-2.608258337355506E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J112">
+        <v>2.8509975973659879E-3</v>
+      </c>
+      <c r="K112">
+        <v>-1.07867280582533E-2</v>
+      </c>
+      <c r="L112">
+        <v>2.4539604604604179E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>41183</v>
       </c>
@@ -3718,8 +4706,17 @@
       <c r="I113">
         <v>1.3245802360981371E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J113">
+        <v>-1.298403469154647E-2</v>
+      </c>
+      <c r="K113">
+        <v>1.032684563979089E-2</v>
+      </c>
+      <c r="L113">
+        <v>-2.358368710786598E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>41275</v>
       </c>
@@ -3747,8 +4744,17 @@
       <c r="I114">
         <v>1.76984656755513E-4</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J114">
+        <v>8.6606835092395385E-6</v>
+      </c>
+      <c r="K114">
+        <v>5.8871881784334147E-2</v>
+      </c>
+      <c r="L114">
+        <v>1.009564049371332E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>41365</v>
       </c>
@@ -3776,8 +4782,17 @@
       <c r="I115">
         <v>5.0919574066231094E-4</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J115">
+        <v>-3.5924072267042349E-4</v>
+      </c>
+      <c r="K115">
+        <v>6.3795668837606956E-2</v>
+      </c>
+      <c r="L115">
+        <v>2.038124073759568E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>41456</v>
       </c>
@@ -3805,8 +4820,17 @@
       <c r="I116">
         <v>4.747188259939388E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J116">
+        <v>-4.6585676053999816E-3</v>
+      </c>
+      <c r="K116">
+        <v>4.8931216424717448E-2</v>
+      </c>
+      <c r="L116">
+        <v>3.3310062589084399E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>41548</v>
       </c>
@@ -3834,8 +4858,17 @@
       <c r="I117">
         <v>3.2964071609928492E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J117">
+        <v>-3.1782532678950662E-3</v>
+      </c>
+      <c r="K117">
+        <v>3.7845877758626648E-2</v>
+      </c>
+      <c r="L117">
+        <v>7.669746475393785E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>41640</v>
       </c>
@@ -3863,8 +4896,17 @@
       <c r="I118">
         <v>6.9047116565176337E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J118">
+        <v>-6.7964017886278736E-3</v>
+      </c>
+      <c r="K118">
+        <v>7.8450683342174525E-3</v>
+      </c>
+      <c r="L118">
+        <v>9.8020974584425193E-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>41730</v>
       </c>
@@ -3892,8 +4934,17 @@
       <c r="I119">
         <v>5.0025965155129967E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J119">
+        <v>-4.925227536285025E-3</v>
+      </c>
+      <c r="K119">
+        <v>5.0295067293873938E-2</v>
+      </c>
+      <c r="L119">
+        <v>1.072106523113006E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>41821</v>
       </c>
@@ -3921,8 +4972,17 @@
       <c r="I120">
         <v>4.3463101632881009E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J120">
+        <v>-4.2804097588688582E-3</v>
+      </c>
+      <c r="K120">
+        <v>2.0150146245997331E-2</v>
+      </c>
+      <c r="L120">
+        <v>7.6622679346015814E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>41913</v>
       </c>
@@ -3950,8 +5010,17 @@
       <c r="I121">
         <v>-2.8635919745584391E-4</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J121">
+        <v>3.2840111675716571E-4</v>
+      </c>
+      <c r="K121">
+        <v>4.4550964895713467E-2</v>
+      </c>
+      <c r="L121">
+        <v>1.366211297568137E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>42005</v>
       </c>
@@ -3979,8 +5048,17 @@
       <c r="I122">
         <v>-1.1364504735153691E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J122">
+        <v>1.143324528376141E-2</v>
+      </c>
+      <c r="K122">
+        <v>-1.2815609832038559E-4</v>
+      </c>
+      <c r="L122">
+        <v>1.153026387093356E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>42095</v>
       </c>
@@ -4008,8 +5086,17 @@
       <c r="I123">
         <v>6.2637023774615216E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J123">
+        <v>-6.205754548427686E-3</v>
+      </c>
+      <c r="K123">
+        <v>3.8110689481155952E-2</v>
+      </c>
+      <c r="L123">
+        <v>5.4682803639812842E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>42186</v>
       </c>
@@ -4037,8 +5124,17 @@
       <c r="I124">
         <v>7.6414797797627861E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J124">
+        <v>-7.5608109778921261E-3</v>
+      </c>
+      <c r="K124">
+        <v>1.1093369201556509E-3</v>
+      </c>
+      <c r="L124">
+        <v>5.0387584854240082E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>42278</v>
       </c>
@@ -4066,8 +5162,17 @@
       <c r="I125">
         <v>-1.265325422568667E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J125">
+        <v>1.306988617398861E-3</v>
+      </c>
+      <c r="K125">
+        <v>-1.0438766875359251E-2</v>
+      </c>
+      <c r="L125">
+        <v>3.688609510546911E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>42370</v>
       </c>
@@ -4095,8 +5200,17 @@
       <c r="I126">
         <v>-3.4077642661795802E-4</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J126">
+        <v>9.8337091585264168E-4</v>
+      </c>
+      <c r="K126">
+        <v>-6.8907700868099678E-2</v>
+      </c>
+      <c r="L126">
+        <v>7.0227724298651227E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>42461</v>
       </c>
@@ -4124,8 +5238,17 @@
       <c r="I127">
         <v>5.6226598059013902E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J127">
+        <v>-5.0530710663882874E-3</v>
+      </c>
+      <c r="K127">
+        <v>5.6841157741739798E-2</v>
+      </c>
+      <c r="L127">
+        <v>5.0193426196965974E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>42552</v>
       </c>
@@ -4153,8 +5276,17 @@
       <c r="I128">
         <v>4.6295895818762797E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J128">
+        <v>-3.8782198269192219E-3</v>
+      </c>
+      <c r="K128">
+        <v>4.647969523665741E-2</v>
+      </c>
+      <c r="L128">
+        <v>6.8179380828223002E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>42644</v>
       </c>
@@ -4182,8 +5314,17 @@
       <c r="I129">
         <v>6.8072369487093918E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J129">
+        <v>-5.9798575735887267E-3</v>
+      </c>
+      <c r="K129">
+        <v>-2.8879183614917679E-2</v>
+      </c>
+      <c r="L129">
+        <v>1.8020334752525519E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>42736</v>
       </c>
@@ -4211,8 +5352,17 @@
       <c r="I130">
         <v>7.7345196329837579E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J130">
+        <v>-6.4403750407801231E-3</v>
+      </c>
+      <c r="K130">
+        <v>6.1632353977254528E-2</v>
+      </c>
+      <c r="L130">
+        <v>7.4369776984758787E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>42826</v>
       </c>
@@ -4240,8 +5390,17 @@
       <c r="I131">
         <v>2.3574715055835818E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J131">
+        <v>-3.4454441845162878E-4</v>
+      </c>
+      <c r="K131">
+        <v>4.2826460722149608E-2</v>
+      </c>
+      <c r="L131">
+        <v>5.6859067548811256E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>42917</v>
       </c>
@@ -4269,8 +5428,17 @@
       <c r="I132">
         <v>2.0473511442485541E-4</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J132">
+        <v>2.4968648768215278E-3</v>
+      </c>
+      <c r="K132">
+        <v>3.5271227338211752E-2</v>
+      </c>
+      <c r="L132">
+        <v>6.9153176640972969E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>43009</v>
       </c>
@@ -4298,8 +5466,17 @@
       <c r="I133">
         <v>9.7093877220205925E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J133">
+        <v>-6.9908885840510304E-3</v>
+      </c>
+      <c r="K133">
+        <v>3.1901511415849203E-2</v>
+      </c>
+      <c r="L133">
+        <v>4.0830048699404924E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>43101</v>
       </c>
@@ -4327,8 +5504,17 @@
       <c r="I134">
         <v>9.0134519423211747E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J134">
+        <v>-5.4579036992979807E-3</v>
+      </c>
+      <c r="K134">
+        <v>8.3123085079714998E-2</v>
+      </c>
+      <c r="L134">
+        <v>9.8300126329614913E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>43191</v>
       </c>
@@ -4356,8 +5542,17 @@
       <c r="I135">
         <v>5.4820348637580922E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J135">
+        <v>-1.051292704087521E-3</v>
+      </c>
+      <c r="K135">
+        <v>-6.9745551706342349E-2</v>
+      </c>
+      <c r="L135">
+        <v>4.3286219658091804E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>43282</v>
       </c>
@@ -4385,8 +5580,17 @@
       <c r="I136">
         <v>3.9366596455084994E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J136">
+        <v>1.0011583801517771E-3</v>
+      </c>
+      <c r="K136">
+        <v>5.7660236230730119E-2</v>
+      </c>
+      <c r="L136">
+        <v>5.8717114530116203E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>43374</v>
       </c>
@@ -4414,8 +5618,17 @@
       <c r="I137">
         <v>6.1827311196229482E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J137">
+        <v>-5.1452215594175073E-4</v>
+      </c>
+      <c r="K137">
+        <v>-4.4012651791766548E-2</v>
+      </c>
+      <c r="L137">
+        <v>1.5370581622309121E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>43466</v>
       </c>
@@ -4443,8 +5656,17 @@
       <c r="I138">
         <v>-8.3509294766918277E-4</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J138">
+        <v>6.8223465653873966E-3</v>
+      </c>
+      <c r="K138">
+        <v>-1.986262582736327E-3</v>
+      </c>
+      <c r="L138">
+        <v>9.4159791622666503E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>43556</v>
       </c>
@@ -4472,8 +5694,17 @@
       <c r="I139">
         <v>1.0524049758523829E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J139">
+        <v>-4.514713337251469E-3</v>
+      </c>
+      <c r="K139">
+        <v>7.5097421508280054E-2</v>
+      </c>
+      <c r="L139">
+        <v>3.9539402642104673E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>43647</v>
       </c>
@@ -4501,8 +5732,17 @@
       <c r="I140">
         <v>2.226854266864484E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J140">
+        <v>3.078942346016863E-3</v>
+      </c>
+      <c r="K140">
+        <v>9.4333438871832542E-3</v>
+      </c>
+      <c r="L140">
+        <v>1.2085903091982941E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>43739</v>
       </c>
@@ -4530,8 +5770,17 @@
       <c r="I141">
         <v>5.2753082137660841E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J141">
+        <v>-1.11355077743759E-3</v>
+      </c>
+      <c r="K141">
+        <v>1.3728444177967619E-2</v>
+      </c>
+      <c r="L141">
+        <v>3.0645424147966332E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>43831</v>
       </c>
@@ -4559,8 +5808,17 @@
       <c r="I142">
         <v>7.6392730726090813E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J142">
+        <v>-3.7881361044678902E-3</v>
+      </c>
+      <c r="K142">
+        <v>5.2400342929385738E-2</v>
+      </c>
+      <c r="L142">
+        <v>7.7640801782665357E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>43922</v>
       </c>
@@ -4588,8 +5846,17 @@
       <c r="I143">
         <v>-1.201585234112662E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J143">
+        <v>1.236085227691263E-2</v>
+      </c>
+      <c r="K143">
+        <v>-9.0090540950639342E-2</v>
+      </c>
+      <c r="L143">
+        <v>-0.1813484447871587</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44013</v>
       </c>
@@ -4617,8 +5884,17 @@
       <c r="I144">
         <v>9.0205594715517239E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J144">
+        <v>-8.7037148828417489E-3</v>
+      </c>
+      <c r="K144">
+        <v>0.1071240901722909</v>
+      </c>
+      <c r="L144">
+        <v>0.14725302070717131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44105</v>
       </c>
@@ -4646,8 +5922,17 @@
       <c r="I145">
         <v>7.5848058981470732E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J145">
+        <v>-7.3337415308014032E-3</v>
+      </c>
+      <c r="K145">
+        <v>-7.9394873917720803E-3</v>
+      </c>
+      <c r="L145">
+        <v>2.1504596817878571E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44197</v>
       </c>
@@ -4675,8 +5960,17 @@
       <c r="I146">
         <v>8.8726636555301955E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J146">
+        <v>-8.6635406184966471E-3</v>
+      </c>
+      <c r="K146">
+        <v>0.1185236651241473</v>
+      </c>
+      <c r="L146">
+        <v>1.4981524527013609E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>44287</v>
       </c>
@@ -4704,8 +5998,17 @@
       <c r="I147">
         <v>1.50627110985724E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J147">
+        <v>-1.501044383541407E-2</v>
+      </c>
+      <c r="K147">
+        <v>0.1033543193802899</v>
+      </c>
+      <c r="L147">
+        <v>3.8730522506414893E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>44378</v>
       </c>
@@ -4733,8 +6036,17 @@
       <c r="I148">
         <v>1.9830204754366951E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J148">
+        <v>-1.9699286658494661E-2</v>
+      </c>
+      <c r="K148">
+        <v>3.010537109026035E-2</v>
+      </c>
+      <c r="L148">
+        <v>-6.3145709498528893E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>44470</v>
       </c>
@@ -4762,8 +6074,17 @@
       <c r="I149">
         <v>1.6638700112255451E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J149">
+        <v>-1.6508733900542669E-2</v>
+      </c>
+      <c r="K149">
+        <v>3.0059797669984671E-2</v>
+      </c>
+      <c r="L149">
+        <v>1.194986492285161E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>44562</v>
       </c>
@@ -4791,8 +6112,17 @@
       <c r="I150">
         <v>2.151513044405946E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J150">
+        <v>-2.1151644815774969E-2</v>
+      </c>
+      <c r="K150">
+        <v>-4.121332012962034E-2</v>
+      </c>
+      <c r="L150">
+        <v>-2.3046487766076248E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>44652</v>
       </c>
@@ -4820,8 +6150,17 @@
       <c r="I151">
         <v>2.115206223011076E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J151">
+        <v>-1.925056200526357E-2</v>
+      </c>
+      <c r="K151">
+        <v>-0.1099344476832009</v>
+      </c>
+      <c r="L151">
+        <v>6.4346151150644071E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44743</v>
       </c>
@@ -4849,8 +6188,17 @@
       <c r="I152">
         <v>2.1792671490487629E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J152">
+        <v>-1.6112687381425631E-2</v>
+      </c>
+      <c r="K152">
+        <v>-2.2189659230232819E-2</v>
+      </c>
+      <c r="L152">
+        <v>-7.5917733236482814E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44835</v>
       </c>
@@ -4878,8 +6226,17 @@
       <c r="I153">
         <v>1.025106840083901E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J153">
+        <v>-7.5256852353695197E-4</v>
+      </c>
+      <c r="K153">
+        <v>-7.483268671455913E-2</v>
+      </c>
+      <c r="L153">
+        <v>9.4034724700641902E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44927</v>
       </c>
@@ -4907,8 +6264,17 @@
       <c r="I154">
         <v>8.2783064018371079E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J154">
+        <v>3.174077605986442E-3</v>
+      </c>
+      <c r="K154">
+        <v>4.3218997153921551E-2</v>
+      </c>
+      <c r="L154">
+        <v>1.2449014334702699E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>45017</v>
       </c>
@@ -4936,8 +6302,17 @@
       <c r="I155">
         <v>7.9627281699481689E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J155">
+        <v>4.4097516509781619E-3</v>
+      </c>
+      <c r="K155">
+        <v>1.456529195773934E-2</v>
+      </c>
+      <c r="L155">
+        <v>8.4804395065178964E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>45108</v>
       </c>
@@ -4965,8 +6340,17 @@
       <c r="I156">
         <v>5.7846353645106142E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J156">
+        <v>7.5733036973006434E-3</v>
+      </c>
+      <c r="K156">
+        <v>9.0077455719047794E-2</v>
+      </c>
+      <c r="L156">
+        <v>5.5147390406069131E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>45200</v>
       </c>
@@ -4994,8 +6378,17 @@
       <c r="I157">
         <v>9.9238403198348996E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J157">
+        <v>3.7094791957823468E-3</v>
+      </c>
+      <c r="K157">
+        <v>-9.9970015028065629E-2</v>
+      </c>
+      <c r="L157">
+        <v>1.6269210151428921E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>45292</v>
       </c>
@@ -5023,8 +6416,17 @@
       <c r="I158">
         <v>6.9350359816905656E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J158">
+        <v>6.3406756773261982E-3</v>
+      </c>
+      <c r="K158">
+        <v>0.13753911511875519</v>
+      </c>
+      <c r="L158">
+        <v>5.5201774067678263E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>45383</v>
       </c>
@@ -5052,8 +6454,17 @@
       <c r="I159">
         <v>1.034674698306939E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J159">
+        <v>2.9048459386667121E-3</v>
+      </c>
+      <c r="K159">
+        <v>2.8122415242276089E-2</v>
+      </c>
+      <c r="L159">
+        <v>4.8057589635417883E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>45474</v>
       </c>
@@ -5081,8 +6492,17 @@
       <c r="I160">
         <v>1.7555567866851E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J160">
+        <v>1.146801442466266E-2</v>
+      </c>
+      <c r="K160">
+        <v>9.0488325891235552E-2</v>
+      </c>
+      <c r="L160">
+        <v>1.157135265913007E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>45566</v>
       </c>
@@ -5110,8 +6530,17 @@
       <c r="I161">
         <v>6.3516497931453966E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J161">
+        <v>5.1739934933543088E-3</v>
+      </c>
+      <c r="K161">
+        <v>2.6275768412991271E-2</v>
+      </c>
+      <c r="L161">
+        <v>6.9837811940322266E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>45658</v>
       </c>
@@ -5138,6 +6567,15 @@
       </c>
       <c r="I162">
         <v>1.1099144903456761E-2</v>
+      </c>
+      <c r="J162">
+        <v>-4.7114634411826208E-4</v>
+      </c>
+      <c r="K162">
+        <v>4.5970753157619983E-2</v>
+      </c>
+      <c r="L162">
+        <v>1.1829410309622001E-3</v>
       </c>
     </row>
   </sheetData>
